--- a/REGULAR/CASUAL-REGULAR FINAL/DE CASTRO, CHRISTINE JEAN.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/DE CASTRO, CHRISTINE JEAN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BD9FB2-C1A9-4073-9BA0-143558F6AB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -294,7 +293,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -951,7 +950,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -968,25 +967,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K122" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K122" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1293,34 +1292,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A82" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="L1" sqref="L1:L1048576"/>
-      <selection pane="bottomLeft" activeCell="K90" sqref="K90"/>
+      <selection pane="bottomLeft" activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1343,7 +1342,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1363,7 +1362,7 @@
       <c r="J3" s="51"/>
       <c r="K3" s="52"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1385,7 +1384,7 @@
       <c r="J4" s="49"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1393,7 +1392,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1406,7 +1405,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="47" t="s">
@@ -1423,7 +1422,7 @@
       <c r="J7" s="47"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1458,7 +1457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1467,7 +1466,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>46.667000000000002</v>
+        <v>46.917000000000002</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1477,12 +1476,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>34.667000000000002</v>
+        <v>35.917000000000002</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>41</v>
       </c>
@@ -1504,7 +1503,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43373</v>
       </c>
@@ -1524,7 +1523,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43404</v>
       </c>
@@ -1544,7 +1543,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43434</v>
       </c>
@@ -1564,7 +1563,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>43465</v>
       </c>
@@ -1584,7 +1583,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>44</v>
       </c>
@@ -1602,7 +1601,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>43496</v>
       </c>
@@ -1622,7 +1621,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43524</v>
       </c>
@@ -1648,7 +1647,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>43555</v>
       </c>
@@ -1668,7 +1667,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>43585</v>
       </c>
@@ -1688,7 +1687,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>43616</v>
       </c>
@@ -1714,7 +1713,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43646</v>
       </c>
@@ -1734,7 +1733,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>43677</v>
       </c>
@@ -1754,7 +1753,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>43708</v>
       </c>
@@ -1780,7 +1779,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>43738</v>
       </c>
@@ -1806,7 +1805,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>43769</v>
       </c>
@@ -1832,7 +1831,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>32</v>
       </c>
@@ -1854,7 +1853,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>32</v>
       </c>
@@ -1878,7 +1877,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>43799</v>
       </c>
@@ -1898,7 +1897,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>43830</v>
       </c>
@@ -1922,7 +1921,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>32</v>
       </c>
@@ -1944,7 +1943,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
         <v>52</v>
       </c>
@@ -1962,7 +1961,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>43861</v>
       </c>
@@ -1982,7 +1981,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>43890</v>
       </c>
@@ -2006,7 +2005,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>32</v>
       </c>
@@ -2030,7 +2029,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>32</v>
       </c>
@@ -2052,7 +2051,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>43921</v>
       </c>
@@ -2072,7 +2071,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>43951</v>
       </c>
@@ -2092,7 +2091,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>43982</v>
       </c>
@@ -2112,7 +2111,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>44012</v>
       </c>
@@ -2132,7 +2131,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>44043</v>
       </c>
@@ -2158,7 +2157,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>44074</v>
       </c>
@@ -2178,7 +2177,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>44104</v>
       </c>
@@ -2198,7 +2197,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>44135</v>
       </c>
@@ -2224,7 +2223,7 @@
         <v>44109</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44165</v>
       </c>
@@ -2244,7 +2243,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>44196</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="37" t="s">
         <v>62</v>
       </c>
@@ -2286,7 +2285,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>44227</v>
       </c>
@@ -2306,7 +2305,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>44255</v>
       </c>
@@ -2330,7 +2329,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>44286</v>
       </c>
@@ -2354,7 +2353,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>44316</v>
       </c>
@@ -2374,7 +2373,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>44347</v>
       </c>
@@ -2394,7 +2393,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>44377</v>
       </c>
@@ -2414,7 +2413,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>44408</v>
       </c>
@@ -2438,7 +2437,7 @@
         <v>44389</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>44439</v>
       </c>
@@ -2458,7 +2457,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>44469</v>
       </c>
@@ -2478,7 +2477,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>44500</v>
       </c>
@@ -2504,7 +2503,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>32</v>
       </c>
@@ -2526,7 +2525,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>44530</v>
       </c>
@@ -2546,7 +2545,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>44561</v>
       </c>
@@ -2572,7 +2571,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>32</v>
       </c>
@@ -2596,7 +2595,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="37" t="s">
         <v>35</v>
       </c>
@@ -2614,7 +2613,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>44592</v>
       </c>
@@ -2640,7 +2639,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>44620</v>
       </c>
@@ -2664,7 +2663,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>44651</v>
       </c>
@@ -2688,7 +2687,7 @@
         <v>44624</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
         <v>32</v>
       </c>
@@ -2712,7 +2711,7 @@
         <v>44628</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
         <v>32</v>
       </c>
@@ -2736,7 +2735,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
         <v>32</v>
       </c>
@@ -2760,7 +2759,7 @@
         <v>44644</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>44681</v>
       </c>
@@ -2786,7 +2785,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>44712</v>
       </c>
@@ -2812,7 +2811,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>44742</v>
       </c>
@@ -2838,7 +2837,7 @@
         <v>44731</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>32</v>
       </c>
@@ -2862,7 +2861,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>32</v>
       </c>
@@ -2886,7 +2885,7 @@
         <v>44768</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>44773</v>
       </c>
@@ -2906,7 +2905,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>44804</v>
       </c>
@@ -2932,7 +2931,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>44834</v>
       </c>
@@ -2958,7 +2957,7 @@
         <v>44813</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>44865</v>
       </c>
@@ -2978,7 +2977,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>44895</v>
       </c>
@@ -3004,7 +3003,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>44926</v>
       </c>
@@ -3024,7 +3023,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
         <v>79</v>
       </c>
@@ -3042,7 +3041,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>44957</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
         <v>32</v>
       </c>
@@ -3090,7 +3089,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>44985</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>45016</v>
       </c>
@@ -3140,7 +3139,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="24" t="s">
         <v>32</v>
       </c>
@@ -3164,7 +3163,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="24" t="s">
         <v>32</v>
       </c>
@@ -3186,7 +3185,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="24" t="s">
         <v>32</v>
       </c>
@@ -3210,7 +3209,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>45046</v>
       </c>
@@ -3230,7 +3229,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>45077</v>
       </c>
@@ -3256,7 +3255,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="24"/>
       <c r="B89" s="12" t="s">
         <v>37</v>
@@ -3278,27 +3277,37 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="24"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="24">
+        <v>45078</v>
+      </c>
       <c r="B90" s="12"/>
-      <c r="C90" s="14"/>
+      <c r="C90" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="12"/>
       <c r="E90" s="9"/>
       <c r="F90" s="12"/>
-      <c r="G90" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="12"/>
       <c r="I90" s="9"/>
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="24"/>
-      <c r="B91" s="12"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="24">
+        <v>45108</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="C91" s="14"/>
-      <c r="D91" s="12"/>
+      <c r="D91" s="12">
+        <v>1</v>
+      </c>
       <c r="E91" s="9"/>
       <c r="F91" s="12"/>
       <c r="G91" s="14" t="str">
@@ -3308,9 +3317,11 @@
       <c r="H91" s="12"/>
       <c r="I91" s="9"/>
       <c r="J91" s="12"/>
-      <c r="K91" s="21"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K91" s="38">
+        <v>45124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="24"/>
       <c r="B92" s="12"/>
       <c r="C92" s="14"/>
@@ -3326,7 +3337,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="24"/>
       <c r="B93" s="12"/>
       <c r="C93" s="14"/>
@@ -3342,7 +3353,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="24"/>
       <c r="B94" s="12"/>
       <c r="C94" s="14"/>
@@ -3358,7 +3369,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="24"/>
       <c r="B95" s="12"/>
       <c r="C95" s="14"/>
@@ -3374,7 +3385,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="24"/>
       <c r="B96" s="12"/>
       <c r="C96" s="14"/>
@@ -3390,7 +3401,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="24"/>
       <c r="B97" s="12"/>
       <c r="C97" s="14"/>
@@ -3406,7 +3417,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="24"/>
       <c r="B98" s="12"/>
       <c r="C98" s="14"/>
@@ -3422,7 +3433,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="24"/>
       <c r="B99" s="12"/>
       <c r="C99" s="14"/>
@@ -3438,7 +3449,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="24"/>
       <c r="B100" s="12"/>
       <c r="C100" s="14"/>
@@ -3454,7 +3465,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="24"/>
       <c r="B101" s="12"/>
       <c r="C101" s="14"/>
@@ -3470,7 +3481,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="24"/>
       <c r="B102" s="12"/>
       <c r="C102" s="14"/>
@@ -3486,7 +3497,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="24"/>
       <c r="B103" s="12"/>
       <c r="C103" s="14"/>
@@ -3502,7 +3513,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="24"/>
       <c r="B104" s="12"/>
       <c r="C104" s="14"/>
@@ -3518,7 +3529,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="24"/>
       <c r="B105" s="12"/>
       <c r="C105" s="14"/>
@@ -3534,7 +3545,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="24"/>
       <c r="B106" s="13"/>
       <c r="C106" s="14"/>
@@ -3550,7 +3561,7 @@
       <c r="J106" s="13"/>
       <c r="K106" s="16"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="24"/>
       <c r="B107" s="13"/>
       <c r="C107" s="14"/>
@@ -3566,7 +3577,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="24"/>
       <c r="B108" s="13"/>
       <c r="C108" s="14"/>
@@ -3582,7 +3593,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="24"/>
       <c r="B109" s="13"/>
       <c r="C109" s="14"/>
@@ -3598,7 +3609,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="24"/>
       <c r="B110" s="13"/>
       <c r="C110" s="14"/>
@@ -3614,7 +3625,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="24"/>
       <c r="B111" s="13"/>
       <c r="C111" s="14"/>
@@ -3630,7 +3641,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="24"/>
       <c r="B112" s="13"/>
       <c r="C112" s="14"/>
@@ -3646,7 +3657,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="24"/>
       <c r="B113" s="13"/>
       <c r="C113" s="14"/>
@@ -3662,7 +3673,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="24"/>
       <c r="B114" s="13"/>
       <c r="C114" s="14"/>
@@ -3678,7 +3689,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="24"/>
       <c r="B115" s="13"/>
       <c r="C115" s="14"/>
@@ -3694,7 +3705,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="24"/>
       <c r="B116" s="13"/>
       <c r="C116" s="14"/>
@@ -3710,7 +3721,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="24"/>
       <c r="B117" s="13"/>
       <c r="C117" s="14"/>
@@ -3726,7 +3737,7 @@
       <c r="J117" s="13"/>
       <c r="K117" s="16"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="24"/>
       <c r="B118" s="12"/>
       <c r="C118" s="14"/>
@@ -3742,7 +3753,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="24"/>
       <c r="B119" s="12"/>
       <c r="C119" s="14"/>
@@ -3758,7 +3769,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="24"/>
       <c r="B120" s="12"/>
       <c r="C120" s="14"/>
@@ -3774,7 +3785,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="24"/>
       <c r="B121" s="12"/>
       <c r="C121" s="14"/>
@@ -3790,7 +3801,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="24"/>
       <c r="B122" s="13"/>
       <c r="C122" s="14"/>
@@ -3822,10 +3833,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3848,28 +3859,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="55" t="s">
         <v>33</v>
       </c>
@@ -3882,7 +3893,7 @@
       <c r="K1" s="56"/>
       <c r="L1" s="56"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -3911,7 +3922,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="D3" s="12"/>
@@ -3933,7 +3944,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="str">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
         <v/>
@@ -3948,10 +3959,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="35" t="s">
         <v>28</v>
       </c>
@@ -3971,7 +3982,7 @@
       <c r="K6" s="57"/>
       <c r="L6" s="57"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -3997,7 +4008,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -4023,7 +4034,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -4049,7 +4060,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -4075,7 +4086,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -4101,7 +4112,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -4127,7 +4138,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -4153,7 +4164,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -4179,7 +4190,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -4199,7 +4210,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -4219,7 +4230,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -4239,7 +4250,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -4260,7 +4271,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -4281,7 +4292,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -4302,7 +4313,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -4323,7 +4334,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -4344,7 +4355,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -4365,7 +4376,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -4386,7 +4397,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -4407,7 +4418,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -4428,7 +4439,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -4449,7 +4460,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -4470,7 +4481,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -4491,7 +4502,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -4512,7 +4523,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -4533,7 +4544,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -4554,7 +4565,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -4575,7 +4586,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -4596,7 +4607,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -4617,7 +4628,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -4638,7 +4649,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -4659,7 +4670,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -4668,7 +4679,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -4677,7 +4688,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -4686,7 +4697,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -4695,7 +4706,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -4704,7 +4715,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -4713,7 +4724,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -4722,7 +4733,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -4731,7 +4742,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -4740,7 +4751,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -4749,7 +4760,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -4758,7 +4769,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -4767,7 +4778,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -4776,7 +4787,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -4785,7 +4796,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -4794,7 +4805,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -4803,7 +4814,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -4812,7 +4823,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -4821,7 +4832,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -4830,7 +4841,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -4839,7 +4850,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -4848,7 +4859,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -4857,7 +4868,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -4866,7 +4877,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -4875,7 +4886,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -4884,7 +4895,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -4893,7 +4904,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -4902,7 +4913,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -4911,7 +4922,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -4920,7 +4931,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CASUAL-REGULAR FINAL/DE CASTRO, CHRISTINE JEAN.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/DE CASTRO, CHRISTINE JEAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
   <si>
     <t>PERIOD</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>6/19-20/2023</t>
+  </si>
+  <si>
+    <t>9/14,15/2023</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1304,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="L1" sqref="L1:L1048576"/>
-      <selection pane="bottomLeft" activeCell="J91" sqref="J91"/>
+      <selection pane="bottomLeft" activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1469,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>46.917000000000002</v>
+        <v>49.417000000000002</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1476,7 +1479,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>35.917000000000002</v>
+        <v>35.417000000000002</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3304,15 +3307,17 @@
       <c r="B91" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C91" s="14"/>
+      <c r="C91" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="12">
         <v>1</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="12"/>
-      <c r="G91" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="12"/>
       <c r="I91" s="9"/>
@@ -3322,24 +3327,38 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="24"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="14"/>
+      <c r="A92" s="24">
+        <v>45139</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="12"/>
       <c r="E92" s="9"/>
       <c r="F92" s="12"/>
-      <c r="G92" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H92" s="12"/>
+      <c r="G92" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H92" s="12">
+        <v>1</v>
+      </c>
       <c r="I92" s="9"/>
       <c r="J92" s="12"/>
-      <c r="K92" s="21"/>
+      <c r="K92" s="38">
+        <v>45156</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="24"/>
-      <c r="B93" s="12"/>
+      <c r="A93" s="24">
+        <v>45170</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="C93" s="14"/>
       <c r="D93" s="12"/>
       <c r="E93" s="9"/>
@@ -3348,10 +3367,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H93" s="12"/>
+      <c r="H93" s="12">
+        <v>2</v>
+      </c>
       <c r="I93" s="9"/>
       <c r="J93" s="12"/>
-      <c r="K93" s="21"/>
+      <c r="K93" s="21" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="24"/>
